--- a/tables/rr.xlsx
+++ b/tables/rr.xlsx
@@ -458,11 +458,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.83</v>
+        <v>5.3</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -472,10 +472,10 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="N2" t="n">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -488,12 +488,12 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.1943</v>
+        <v>0.2352</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -502,10 +502,10 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="N3" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -518,26 +518,26 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5.76</v>
+        <v>1.81</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.779531231442889</v>
+        <v>0.244956862658269</v>
       </c>
       <c r="H4" t="n">
-        <v>42.5609631298405</v>
+        <v>13.3741915390645</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>230</v>
+        <v>428</v>
       </c>
       <c r="N4" t="n">
-        <v>231</v>
+        <v>434</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -550,11 +550,11 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.53</v>
+        <v>0.66</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -566,10 +566,10 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="P5" t="n">
-        <v>254</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -580,12 +580,12 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.03094</v>
+        <v>0.0296</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -596,10 +596,10 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="P6" t="n">
-        <v>161</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
@@ -610,16 +610,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.49</v>
+        <v>0.4</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.472320138495778</v>
+        <v>0.0541341132946451</v>
       </c>
       <c r="H7" t="n">
-        <v>25.787805785268</v>
+        <v>2.95562243957226</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -628,10 +628,10 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="P7" t="n">
-        <v>45</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -642,11 +642,11 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -654,7 +654,7 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.052</v>
+        <v>0.409</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -670,19 +670,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.0392</v>
+        <v>0.0413</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>0.117</v>
+        <v>0.056</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -698,21 +698,21 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>0.395179027050909</v>
+        <v>0.514274076299128</v>
       </c>
       <c r="H10" t="n">
-        <v>21.5760438088775</v>
+        <v>28.0784131759365</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.55</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -729,10 +729,10 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>1.57484646766448</v>
+        <v>1.66770682055808</v>
       </c>
       <c r="E11" t="n">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -742,10 +742,10 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="N11" t="n">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>1.06471073699243</v>
+        <v>1.56861591791385</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -772,10 +772,10 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="N12" t="n">
-        <v>421</v>
+        <v>277</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -789,25 +789,25 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>1.7509374747078</v>
+        <v>0.593326845277734</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>-0.2490625252922</v>
+        <v>-1.40667315472227</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7509374747078</v>
+        <v>2.59332684527773</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="N13" t="n">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -821,10 +821,10 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.425267735404344</v>
+        <v>-0.415515443961666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -836,10 +836,10 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>316</v>
+        <v>85</v>
       </c>
       <c r="P14" t="n">
-        <v>283</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -851,7 +851,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>-0.0943106794712413</v>
+        <v>-0.22314355131421</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
@@ -866,10 +866,10 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="P15" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -881,27 +881,27 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>1.24990173621434</v>
+        <v>-0.916290731874155</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="n">
-        <v>-0.750098263785664</v>
+        <v>-2.91629073187416</v>
       </c>
       <c r="J16" t="n">
-        <v>3.24990173621434</v>
+        <v>1.08370926812584</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16" t="n">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="P16" t="n">
-        <v>78</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>0.947789398933526</v>
+        <v>0.792992515529661</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -924,7 +924,7 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" t="n">
-        <v>0.022</v>
+        <v>0.183</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>1.58923520511658</v>
+        <v>1.77495235091167</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
@@ -952,7 +952,7 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -969,20 +969,20 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>1.07158361628019</v>
+        <v>1.33500106673234</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="n">
-        <v>-0.92841638371981</v>
+        <v>-0.66499893326766</v>
       </c>
       <c r="J19" t="n">
-        <v>3.07158361628019</v>
+        <v>3.33500106673234</v>
       </c>
       <c r="K19" t="n">
-        <v>0.089</v>
+        <v>0.222</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>

--- a/tables/rr.xlsx
+++ b/tables/rr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">rr</t>
   </si>
   <si>
@@ -63,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">rr_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+NNT</t>
   </si>
   <si>
     <t xml:space="preserve">rr_pval</t>
@@ -449,115 +461,143 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D2"/>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" t="n">
-        <v>0.49</v>
+        <v>3.66</v>
       </c>
       <c r="F2"/>
-      <c r="G2"/>
+      <c r="G2" t="n">
+        <v>0.51</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="n">
-        <v>306</v>
-      </c>
-      <c r="N2" t="n">
-        <v>316</v>
-      </c>
-      <c r="O2"/>
-      <c r="P2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+      <c r="P2" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0.2352</v>
-      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" t="n">
+        <v>0.06426</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="n">
-        <v>481</v>
-      </c>
-      <c r="N3" t="n">
-        <v>473</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>335</v>
+      </c>
+      <c r="P3" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.52</v>
+      </c>
       <c r="F4"/>
-      <c r="G4" t="n">
-        <v>0.244956862658269</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.3741915390645</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="n">
+        <v>0.611715480229489</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.3985335671665</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4" t="n">
-        <v>428</v>
-      </c>
-      <c r="N4" t="n">
-        <v>434</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>261</v>
+      </c>
+      <c r="P4" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
         <v>0.37</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -565,269 +605,323 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" t="n">
-        <v>96</v>
-      </c>
-      <c r="P5" t="n">
-        <v>138</v>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>124</v>
+      </c>
+      <c r="R5" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>0.0296</v>
-      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6" t="n">
+        <v>0.0481</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6" t="n">
-        <v>271</v>
-      </c>
-      <c r="P6" t="n">
-        <v>238</v>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>261</v>
+      </c>
+      <c r="R6" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.34</v>
+      </c>
       <c r="F7"/>
-      <c r="G7" t="n">
-        <v>0.0541341132946451</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.95562243957226</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="n">
+        <v>0.587355129246899</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.068503469359</v>
+      </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7" t="n">
-        <v>238</v>
-      </c>
-      <c r="P7" t="n">
-        <v>269</v>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>289</v>
+      </c>
+      <c r="R7" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D8"/>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" t="n">
-        <v>0.07</v>
+        <v>5.28</v>
       </c>
       <c r="F8"/>
-      <c r="G8"/>
+      <c r="G8" t="n">
+        <v>0.68</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="n">
-        <v>0.409</v>
-      </c>
+      <c r="K8"/>
       <c r="L8"/>
-      <c r="M8"/>
+      <c r="M8" t="n">
+        <v>0.441</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>0.0413</v>
-      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
+      <c r="H9" t="n">
+        <v>0.2618</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="n">
-        <v>0.056</v>
-      </c>
+      <c r="K9"/>
       <c r="L9"/>
-      <c r="M9"/>
+      <c r="M9" t="n">
+        <v>0.47</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.22</v>
+      </c>
       <c r="F10"/>
-      <c r="G10" t="n">
-        <v>0.514274076299128</v>
-      </c>
-      <c r="H10" t="n">
-        <v>28.0784131759365</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>0.706450178495118</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38.570872836418</v>
+      </c>
+      <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
+      <c r="M10" t="n">
+        <v>0.321</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="n">
-        <v>1.66770682055808</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>1.29746314741327</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.32</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" t="n">
-        <v>237</v>
-      </c>
-      <c r="N11" t="n">
-        <v>232</v>
-      </c>
-      <c r="O11"/>
-      <c r="P11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="n">
+        <v>327</v>
+      </c>
+      <c r="P11" t="n">
+        <v>322</v>
+      </c>
+      <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="n">
-        <v>1.56861591791385</v>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
+        <v>0.231111720963387</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" t="n">
-        <v>269</v>
-      </c>
-      <c r="N12" t="n">
-        <v>277</v>
-      </c>
-      <c r="O12"/>
-      <c r="P12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="n">
+        <v>112</v>
+      </c>
+      <c r="P12" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="n">
-        <v>0.593326845277734</v>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13"/>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>1.50851199384414</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" t="n">
-        <v>-1.40667315472227</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.59332684527773</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13" t="n">
-        <v>275</v>
-      </c>
-      <c r="N13" t="n">
-        <v>274</v>
-      </c>
-      <c r="O13"/>
-      <c r="P13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="n">
+        <v>-0.49148800615586</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.50851199384414</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="n">
+        <v>333</v>
+      </c>
+      <c r="P13" t="n">
+        <v>343</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="n">
-        <v>-0.415515443961666</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>-0.49429632181478</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -835,160 +929,192 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" t="n">
-        <v>85</v>
-      </c>
-      <c r="P14" t="n">
-        <v>54</v>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="n">
+        <v>249</v>
+      </c>
+      <c r="R14" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="n">
-        <v>-0.22314355131421</v>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
+        <v>0.262364264467491</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" t="n">
-        <v>178</v>
-      </c>
-      <c r="P15" t="n">
-        <v>188</v>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>157</v>
+      </c>
+      <c r="R15" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="n">
-        <v>-0.916290731874155</v>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" t="n">
+        <v>1.46787434811231</v>
+      </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" t="n">
-        <v>-2.91629073187416</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.08370926812584</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="n">
+        <v>-0.532125651887686</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.46787434811231</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16" t="n">
-        <v>332</v>
-      </c>
-      <c r="P16" t="n">
-        <v>316</v>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" t="n">
+        <v>488</v>
+      </c>
+      <c r="R16" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="n">
-        <v>0.792992515529661</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>1.66392609771817</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="n">
-        <v>0.183</v>
-      </c>
+      <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
+      <c r="M17" t="n">
+        <v>0.237</v>
+      </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="n">
-        <v>1.77495235091167</v>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
+        <v>1.34807314829969</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18" t="n">
-        <v>0.321</v>
-      </c>
+      <c r="K18"/>
       <c r="L18"/>
-      <c r="M18"/>
+      <c r="M18" t="n">
+        <v>0.248</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="n">
-        <v>1.33500106673234</v>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
       <c r="E19"/>
-      <c r="F19"/>
+      <c r="F19" t="n">
+        <v>1.65249740189455</v>
+      </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" t="n">
-        <v>-0.66499893326766</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.33500106673234</v>
-      </c>
+      <c r="I19"/>
+      <c r="J19"/>
       <c r="K19" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="L19"/>
-      <c r="M19"/>
+        <v>-0.347502598105453</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.65249740189455</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.562</v>
+      </c>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/rr.xlsx
+++ b/tables/rr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">rr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logrr</t>
   </si>
   <si>
     <t xml:space="preserve">logrr_se</t>
@@ -464,140 +461,134 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" t="n">
-        <v>0.51</v>
-      </c>
+        <v>3.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2"/>
+      <c r="N2" t="n">
+        <v>89</v>
+      </c>
       <c r="O2" t="n">
-        <v>42</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>1.26</v>
+        <v>3.75</v>
       </c>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" t="n">
-        <v>0.06426</v>
-      </c>
+      <c r="G3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
+      <c r="N3" t="n">
+        <v>114</v>
+      </c>
       <c r="O3" t="n">
-        <v>335</v>
-      </c>
-      <c r="P3" t="n">
-        <v>335</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="n">
+        <v>0.51021401780203</v>
+      </c>
       <c r="I4" t="n">
-        <v>0.611715480229489</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33.3985335671665</v>
-      </c>
+        <v>27.8567414929685</v>
+      </c>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
+      <c r="N4" t="n">
+        <v>463</v>
+      </c>
       <c r="O4" t="n">
-        <v>261</v>
-      </c>
-      <c r="P4" t="n">
-        <v>263</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>0.37</v>
-      </c>
+        <v>3.09</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -606,35 +597,34 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5"/>
+      <c r="P5" t="n">
+        <v>147</v>
+      </c>
       <c r="Q5" t="n">
-        <v>124</v>
-      </c>
-      <c r="R5" t="n">
-        <v>104</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3</v>
+        <v>2.27</v>
       </c>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" t="n">
-        <v>0.0481</v>
-      </c>
+      <c r="G6" t="n">
+        <v>0.01589</v>
+      </c>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -642,479 +632,150 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6"/>
+      <c r="P6" t="n">
+        <v>355</v>
+      </c>
       <c r="Q6" t="n">
-        <v>261</v>
-      </c>
-      <c r="R6" t="n">
-        <v>258</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>4.34</v>
+        <v>4.06</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
+      <c r="H7" t="n">
+        <v>0.549461249940647</v>
+      </c>
       <c r="I7" t="n">
-        <v>0.587355129246899</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32.068503469359</v>
-      </c>
+        <v>29.9995677616584</v>
+      </c>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7"/>
+      <c r="P7" t="n">
+        <v>126</v>
+      </c>
       <c r="Q7" t="n">
-        <v>289</v>
-      </c>
-      <c r="R7" t="n">
-        <v>331</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" t="n">
-        <v>0.68</v>
-      </c>
+        <v>2.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.441</v>
-      </c>
+      <c r="L8" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" t="n">
-        <v>0.2618</v>
-      </c>
+      <c r="G9" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9" t="n">
-        <v>0.47</v>
-      </c>
+      <c r="L9" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>5.22</v>
+        <v>4.5</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
+      <c r="H10" t="n">
+        <v>0.609008774564757</v>
+      </c>
       <c r="I10" t="n">
-        <v>0.706450178495118</v>
-      </c>
-      <c r="J10" t="n">
-        <v>38.570872836418</v>
-      </c>
+        <v>33.2507524451879</v>
+      </c>
+      <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10" t="n">
-        <v>0.321</v>
-      </c>
+      <c r="L10" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="n">
-        <v>1.29746314741327</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" t="n">
-        <v>327</v>
-      </c>
-      <c r="P11" t="n">
-        <v>322</v>
-      </c>
-      <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="n">
-        <v>0.231111720963387</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12" t="n">
-        <v>112</v>
-      </c>
-      <c r="P12" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q12"/>
-      <c r="R12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="n">
-        <v>1.50851199384414</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" t="n">
-        <v>-0.49148800615586</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.50851199384414</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13" t="n">
-        <v>333</v>
-      </c>
-      <c r="P13" t="n">
-        <v>343</v>
-      </c>
-      <c r="Q13"/>
-      <c r="R13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="n">
-        <v>-0.49429632181478</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14" t="n">
-        <v>249</v>
-      </c>
-      <c r="R14" t="n">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="n">
-        <v>0.262364264467491</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15" t="n">
-        <v>157</v>
-      </c>
-      <c r="R15" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="n">
-        <v>1.46787434811231</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" t="n">
-        <v>-0.532125651887686</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.46787434811231</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16" t="n">
-        <v>488</v>
-      </c>
-      <c r="R16" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="n">
-        <v>1.66392609771817</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="n">
-        <v>1.34807314829969</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="n">
-        <v>1.65249740189455</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" t="n">
-        <v>-0.347502598105453</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.65249740189455</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/rr.xlsx
+++ b/tables/rr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">converted_es</t>
   </si>
   <si>
-    <t xml:space="preserve">rr</t>
+    <t xml:space="preserve">(log)rr</t>
   </si>
   <si>
     <t xml:space="preserve">logrr_se</t>
@@ -35,16 +35,10 @@
     <t xml:space="preserve">logrr_pval</t>
   </si>
   <si>
-    <t xml:space="preserve">rr_ci_lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rr_ci_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logrr_ci_lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logrr_ci_up</t>
+    <t xml:space="preserve">(log)rr_ci_lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(log)rr_ci_up</t>
   </si>
   <si>
     <t xml:space="preserve">baseline_risk</t>
@@ -455,138 +449,126 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>3.15</v>
+        <v>1.59</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" t="n">
-        <v>89</v>
-      </c>
-      <c r="O2" t="n">
-        <v>92</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="L2" t="n">
+        <v>244</v>
+      </c>
+      <c r="M2" t="n">
+        <v>234</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>3.75</v>
+        <v>1.81</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.15</v>
+        <v>0.1629</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
-        <v>114</v>
-      </c>
-      <c r="O3" t="n">
-        <v>117</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="L3" t="n">
+        <v>460</v>
+      </c>
+      <c r="M3" t="n">
+        <v>467</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>3.77</v>
+        <v>0.11</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.51021401780203</v>
+        <v>0.0148868811560274</v>
       </c>
       <c r="I4" t="n">
-        <v>27.8567414929685</v>
+        <v>0.812796170882372</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" t="n">
-        <v>463</v>
-      </c>
-      <c r="O4" t="n">
-        <v>472</v>
-      </c>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="L4" t="n">
+        <v>167</v>
+      </c>
+      <c r="M4" t="n">
+        <v>171</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07</v>
+        <v>0.48</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -595,34 +577,32 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>174</v>
+      <c r="N5" t="n">
+        <v>471</v>
+      </c>
+      <c r="O5" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>2.27</v>
+        <v>5.6</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.01589</v>
+        <v>0.2688</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -630,152 +610,142 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>355</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>312</v>
+      <c r="N6" t="n">
+        <v>116</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>4.06</v>
+        <v>2.61</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.549461249940647</v>
+        <v>0.353225089247559</v>
       </c>
       <c r="I7" t="n">
-        <v>29.9995677616584</v>
+        <v>19.285436418209</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7" t="n">
-        <v>126</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>99</v>
+      <c r="N7" t="n">
+        <v>485</v>
+      </c>
+      <c r="O7" t="n">
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>2.17</v>
+        <v>0.38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>0.317</v>
+      </c>
       <c r="K8"/>
-      <c r="L8" t="n">
-        <v>0.598</v>
-      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>3.3</v>
+        <v>2.61</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.1782</v>
+        <v>0.12267</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9"/>
+      <c r="J9" t="n">
+        <v>0.512</v>
+      </c>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>0.341</v>
-      </c>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5</v>
+        <v>5.51</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="n">
-        <v>0.609008774564757</v>
+        <v>0.745697410633736</v>
       </c>
       <c r="I10" t="n">
-        <v>33.2507524451879</v>
-      </c>
-      <c r="J10"/>
+        <v>40.7136991051079</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.471</v>
+      </c>
       <c r="K10"/>
-      <c r="L10" t="n">
-        <v>0.245</v>
-      </c>
+      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
